--- a/data/files/info.xlsx
+++ b/data/files/info.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnkieF\Desktop\repo\data\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A66E625-3988-4976-B852-0C1279FAA514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="14040" yWindow="3765" windowWidth="17790" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="253">
   <si>
     <t>Author</t>
   </si>
@@ -79,7 +85,7 @@
     <t>儒勒·凡尔纳</t>
   </si>
   <si>
-    <t>列夫托尔斯泰</t>
+    <t>列夫·托尔斯泰</t>
   </si>
   <si>
     <t>刘易斯·卡罗尔</t>
@@ -100,9 +106,6 @@
     <t>卡夫卡</t>
   </si>
   <si>
-    <t>史蒂芬·金</t>
-  </si>
-  <si>
     <t>司汤达</t>
   </si>
   <si>
@@ -127,9 +130,6 @@
     <t>大仲马</t>
   </si>
   <si>
-    <t>大卫·林奇</t>
-  </si>
-  <si>
     <t>大卫·米切尔</t>
   </si>
   <si>
@@ -151,9 +151,6 @@
     <t>姜峯楠</t>
   </si>
   <si>
-    <t>安东尼·伯吉斯</t>
-  </si>
-  <si>
     <t>小仲马</t>
   </si>
   <si>
@@ -244,7 +241,7 @@
     <t>毛姆</t>
   </si>
   <si>
-    <t>沃尔特•司各特</t>
+    <t>沃尔特·司各特</t>
   </si>
   <si>
     <t>法布尔</t>
@@ -277,9 +274,6 @@
     <t>狄更斯</t>
   </si>
   <si>
-    <t>玛格丽特·杜拉斯</t>
-  </si>
-  <si>
     <t>玛格丽特·米切尔</t>
   </si>
   <si>
@@ -349,9 +343,6 @@
     <t>萨克雷</t>
   </si>
   <si>
-    <t>萨德</t>
-  </si>
-  <si>
     <t>蒲宁</t>
   </si>
   <si>
@@ -403,9 +394,6 @@
     <t>霍桑</t>
   </si>
   <si>
-    <t>霍达</t>
-  </si>
-  <si>
     <t>马克·吐温</t>
   </si>
   <si>
@@ -418,404 +406,386 @@
     <t>高尔基</t>
   </si>
   <si>
-    <t>['哈利·波特与凤凰社', '哈利·波特与死亡圣器', '哈利·波特与魔法石']</t>
-  </si>
-  <si>
-    <t>['荒原']</t>
-  </si>
-  <si>
-    <t>['假面的告白', '金阁寺']</t>
-  </si>
-  <si>
-    <t>['始于极限']</t>
-  </si>
-  <si>
-    <t>['嫌疑人X的献身', '没有凶手的杀人夜', '玫瑰与匕首', '白夜行']</t>
-  </si>
-  <si>
-    <t>['经典作品大全含达芬奇密码']</t>
-  </si>
-  <si>
-    <t>['献给阿尔杰农的花']</t>
-  </si>
-  <si>
-    <t>['鲁滨逊漂流记']</t>
-  </si>
-  <si>
-    <t>['尤利西斯']</t>
-  </si>
-  <si>
-    <t>['坎特伯雷故事集']</t>
-  </si>
-  <si>
-    <t>['动物庄园·1984', '缅甸岁月']</t>
-  </si>
-  <si>
-    <t>['冰与火之歌1-5卷']</t>
-  </si>
-  <si>
-    <t>['格列佛游记']</t>
-  </si>
-  <si>
-    <t>['瓦尔登湖']</t>
-  </si>
-  <si>
-    <t>['门萨的娼妓']</t>
-  </si>
-  <si>
-    <t>['牛虻']</t>
-  </si>
-  <si>
-    <t>['神曲']</t>
-  </si>
-  <si>
-    <t>['八十天环游地球', '格兰特船长的儿女', '海底两万里', '神秘岛']</t>
-  </si>
-  <si>
-    <t>['安娜·卡列尼娜']</t>
-  </si>
-  <si>
-    <t>['爱丽丝镜中漫游记']</t>
-  </si>
-  <si>
-    <t>['局外人', '鼠疫']</t>
-  </si>
-  <si>
-    <t>['百年孤独', '迷宫中的将军', '霍乱时期的爱情']</t>
-  </si>
-  <si>
-    <t>['博尔赫斯文集']</t>
-  </si>
-  <si>
-    <t>['灿烂千阳', '群山回唱', '追风筝的人']</t>
-  </si>
-  <si>
-    <t>['卡夫卡短篇集', '变形记', '审判']</t>
-  </si>
-  <si>
-    <t>['肖申克的救赎']</t>
-  </si>
-  <si>
-    <t>['司汤达短篇小说选', '红与黑']</t>
-  </si>
-  <si>
-    <t>['苦儿流浪记']</t>
-  </si>
-  <si>
-    <t>['那不勒斯四部曲']</t>
-  </si>
-  <si>
-    <t>['堂吉诃德']</t>
-  </si>
-  <si>
-    <t>['麦田里的守望者']</t>
-  </si>
-  <si>
-    <t>['阿达拉']</t>
-  </si>
-  <si>
-    <t>['简爱']</t>
-  </si>
-  <si>
-    <t>['基督山伯爵']</t>
-  </si>
-  <si>
-    <t>['象人']</t>
-  </si>
-  <si>
-    <t>['云图']</t>
-  </si>
-  <si>
-    <t>['嫉妒', '恋爱中的女人']</t>
-  </si>
-  <si>
-    <t>['人间失格', '太宰治作品选', '斜阳', '跑吧美乐斯']</t>
-  </si>
-  <si>
-    <t>['第六病室', '装在套子里的人', '跳来跳去的女人', '鞋匠和魔鬼']</t>
-  </si>
-  <si>
-    <t>['美丽新世界']</t>
-  </si>
-  <si>
-    <t>['钢铁是怎样炼成的']</t>
-  </si>
-  <si>
-    <t>['七十二个字母', '你一生的故事 ']</t>
-  </si>
-  <si>
-    <t>['发条橙']</t>
-  </si>
-  <si>
-    <t>['茶花女']</t>
-  </si>
-  <si>
-    <t>['好兆头', '美国众神北欧众神', '遗忘之海']</t>
-  </si>
-  <si>
-    <t>['初恋', '春潮', '父与子', '猎人笔记', '贵族之家']</t>
-  </si>
-  <si>
-    <t>['情书']</t>
-  </si>
-  <si>
-    <t>['伊豆的舞女', '山之音', '川端康成十卷集', '湖', '美好的旅行']</t>
-  </si>
-  <si>
-    <t>['交际花盛衰记', '高老头']</t>
-  </si>
-  <si>
-    <t>['阴谋与爱情']</t>
-  </si>
-  <si>
-    <t>['沙丘']</t>
-  </si>
-  <si>
-    <t>['绿野仙踪']</t>
-  </si>
-  <si>
-    <t>['上升的一切必将汇合', '好人难寻']</t>
-  </si>
-  <si>
-    <t>['普宁', '洛丽塔']</t>
-  </si>
-  <si>
-    <t>['搏击俱乐部', '肠子']</t>
-  </si>
-  <si>
-    <t>['魔戒全集指环王123']</t>
-  </si>
-  <si>
-    <t>['德伯家的苔丝', '还乡']</t>
-  </si>
-  <si>
-    <t>['红龙沉默的羔羊汉尼拔汉尼拔崛起无助孩童如何变成头号食人恶魔']</t>
-  </si>
-  <si>
-    <t>['少年Pi的奇幻漂流']</t>
-  </si>
-  <si>
-    <t>['唐璜']</t>
-  </si>
-  <si>
-    <t>['一个陌生女人的来信', '变形的陶醉', '命运攸关的时刻', '恐惧']</t>
-  </si>
-  <si>
-    <t>['捕梦网', '穹顶之下', '绿里奇迹', '肖申克的救赎']</t>
-  </si>
-  <si>
-    <t>['玩偶之家']</t>
-  </si>
-  <si>
-    <t>['假如生活欺骗了你', '普希金作品选', '普希金诗选', '黑桃皇后']</t>
-  </si>
-  <si>
-    <t>['菊与刀']</t>
-  </si>
-  <si>
-    <t>['1Q84', '国境以南太阳以西', '挪威的森林', '没有色彩的多崎作和他的巡礼之年', '海边的卡夫卡']</t>
-  </si>
-  <si>
-    <t>['野性的呼唤', '马丁·伊登']</t>
-  </si>
-  <si>
-    <t>['在路上']</t>
-  </si>
-  <si>
-    <t>['理想国']</t>
-  </si>
-  <si>
-    <t>['福尔摩斯探案全集']</t>
-  </si>
-  <si>
-    <t>['欧·亨利短篇小说选']</t>
-  </si>
-  <si>
-    <t>['少年维特之烦恼', '浮士德']</t>
-  </si>
-  <si>
-    <t>['人生的枷锁', '刀锋', '月亮和六便士', '面纱']</t>
-  </si>
-  <si>
-    <t>['英雄艾文荷']</t>
-  </si>
-  <si>
-    <t>['昆虫记']</t>
-  </si>
-  <si>
-    <t>['吉檀迦利', '飞鸟集·新月集']</t>
-  </si>
-  <si>
-    <t>['假如给我三天光明']</t>
-  </si>
-  <si>
-    <t>['丧钟为谁而鸣', '海明威短篇小说集', '老人与海太阳照常升起永别了武器乞力马扎罗的雪', '那片陌生的天地']</t>
-  </si>
-  <si>
-    <t>['查令十字街84号']</t>
-  </si>
-  <si>
-    <t>['失乐园', '樱花树下', '紫阳花日记', '红花']</t>
-  </si>
-  <si>
-    <t>['阿甘正传']</t>
-  </si>
-  <si>
-    <t>['爱伦·坡暗黑故事全集txt']</t>
-  </si>
-  <si>
-    <t>['全集']</t>
-  </si>
-  <si>
-    <t>['双城记', '大卫·科波菲尔']</t>
-  </si>
-  <si>
-    <t>['广岛之恋', '情人']</t>
-  </si>
-  <si>
-    <t>['乱世佳人']</t>
-  </si>
-  <si>
-    <t>['草叶集']</t>
-  </si>
-  <si>
-    <t>['包法利夫人', '萨朗波']</t>
-  </si>
-  <si>
-    <t>['古兰经']</t>
-  </si>
-  <si>
-    <t>['傲慢与偏见', '理智与情感']</t>
-  </si>
-  <si>
-    <t>['不朽', '不能承受的生命之轻', '本性', '缓慢']</t>
-  </si>
-  <si>
-    <t>['静静的顿河']</t>
-  </si>
-  <si>
-    <t>['蒙田随笔全集']</t>
-  </si>
-  <si>
-    <t>['源氏物语']</t>
-  </si>
-  <si>
-    <t>['穿条纹睡衣的男孩']</t>
-  </si>
-  <si>
-    <t>['失乐园', '论出版自由']</t>
-  </si>
-  <si>
-    <t>['背德者']</t>
-  </si>
-  <si>
-    <t>['巴黎圣母院', '悲惨世界']</t>
-  </si>
-  <si>
-    <t>['名人传', '约翰·克利斯朵夫']</t>
-  </si>
-  <si>
-    <t>['二十首情诗和一首绝望的歌', '聂鲁达爱情诗选']</t>
-  </si>
-  <si>
-    <t>['呼啸山庄']</t>
-  </si>
-  <si>
-    <t>['永恒的终结', '银河帝国基地七部曲']</t>
-  </si>
-  <si>
-    <t>['罗生门', '芥川龙之介精选集']</t>
-  </si>
-  <si>
-    <t>['伊利亚特', '奥德赛']</t>
-  </si>
-  <si>
-    <t>['哈姆雷特', '威尼斯商人', '李尔王', '理查三世', '罗密欧与朱丽叶', '莎士比亚全集二']</t>
-  </si>
-  <si>
-    <t>['温泉', '漂亮朋友', '羊脂球']</t>
-  </si>
-  <si>
-    <t>['了不起的盖茨比夜色温柔爵士时代的故事', '美丽与毁灭']</t>
-  </si>
-  <si>
-    <t>['名利场']</t>
-  </si>
-  <si>
-    <t>['淑女的眼泪']</t>
-  </si>
-  <si>
-    <t>['阿尔谢尼耶夫的一生']</t>
-  </si>
-  <si>
-    <t>['十日谈']</t>
-  </si>
-  <si>
-    <t>['天才']</t>
-  </si>
-  <si>
-    <t>['假如明天来临']</t>
-  </si>
-  <si>
-    <t>['春琴抄', '秦淮之夜', '细雪']</t>
-  </si>
-  <si>
-    <t>['惶然录']</t>
-  </si>
-  <si>
-    <t>['玻璃球游戏', '荒原狼']</t>
-  </si>
-  <si>
-    <t>['小妇人']</t>
-  </si>
-  <si>
-    <t>['蝴蝶梦']</t>
-  </si>
-  <si>
-    <t>['银河系漫游五部曲']</t>
-  </si>
-  <si>
-    <t>['东方快车谋杀案', '尼罗河上的惨案', '无人生还']</t>
-  </si>
-  <si>
-    <t>['太空漫游四部曲']</t>
-  </si>
-  <si>
-    <t>['艺妓回忆录']</t>
-  </si>
-  <si>
-    <t>['卡拉马佐夫兄弟', '白痴', '罪与罚']</t>
-  </si>
-  <si>
-    <t>['好兵帅克']</t>
-  </si>
-  <si>
-    <t>['当我们谈论爱情时我们在谈论什么']</t>
-  </si>
-  <si>
-    <t>['红字']</t>
-  </si>
-  <si>
-    <t>['穆斯林的葬礼']</t>
-  </si>
-  <si>
-    <t>['汤姆索亚历险记', '百万英镑']</t>
-  </si>
-  <si>
-    <t>['追忆似水年华']</t>
-  </si>
-  <si>
-    <t>['教父']</t>
-  </si>
-  <si>
-    <t>['在人间', '我的大学', '母亲']</t>
+    <t>哈利·波特与凤凰社,哈利·波特与死亡圣器,哈利·波特与魔法石</t>
+  </si>
+  <si>
+    <t>荒原</t>
+  </si>
+  <si>
+    <t>假面的告白,金阁寺</t>
+  </si>
+  <si>
+    <t>厌女,始于极限</t>
+  </si>
+  <si>
+    <t>嫌疑人X的献身,没有凶手的杀人夜,玫瑰与匕首,白夜行,解忧杂货店</t>
+  </si>
+  <si>
+    <t>达·芬奇密码,数字城堡,地狱</t>
+  </si>
+  <si>
+    <t>献给阿尔杰农的花</t>
+  </si>
+  <si>
+    <t>鲁滨逊漂流记</t>
+  </si>
+  <si>
+    <t>一个青年艺术家的画像,尤利西斯</t>
+  </si>
+  <si>
+    <t>坎特伯雷故事集</t>
+  </si>
+  <si>
+    <t>动物庄园·1984,缅甸岁月</t>
+  </si>
+  <si>
+    <t>冰与火之歌1-5卷</t>
+  </si>
+  <si>
+    <t>格列佛游记</t>
+  </si>
+  <si>
+    <t>瓦尔登湖</t>
+  </si>
+  <si>
+    <t>门萨的娼妓</t>
+  </si>
+  <si>
+    <t>牛虻</t>
+  </si>
+  <si>
+    <t>神曲</t>
+  </si>
+  <si>
+    <t>八十天环游地球,格兰特船长的儿女,海底两万里,神秘岛</t>
+  </si>
+  <si>
+    <t>安娜·卡列尼娜</t>
+  </si>
+  <si>
+    <t>爱丽丝漫游奇境记,爱丽丝镜中漫游记</t>
+  </si>
+  <si>
+    <t>局外人,西西弗神话,鼠疫</t>
+  </si>
+  <si>
+    <t>百年孤独,迷宫中的将军,霍乱时期的爱情</t>
+  </si>
+  <si>
+    <t>小径分叉的花园,沙之书,环形废墟</t>
+  </si>
+  <si>
+    <t>灿烂千阳,群山回唱,追风筝的人</t>
+  </si>
+  <si>
+    <t>卡夫卡短篇集,变形记,审判</t>
+  </si>
+  <si>
+    <t>司汤达短篇小说选,红与黑</t>
+  </si>
+  <si>
+    <t>苦儿流浪记</t>
+  </si>
+  <si>
+    <t>那不勒斯四部曲</t>
+  </si>
+  <si>
+    <t>堂吉诃德</t>
+  </si>
+  <si>
+    <t>麦田里的守望者</t>
+  </si>
+  <si>
+    <t>阿达拉</t>
+  </si>
+  <si>
+    <t>简爱</t>
+  </si>
+  <si>
+    <t>三个火枪手,基督山伯爵</t>
+  </si>
+  <si>
+    <t>云图</t>
+  </si>
+  <si>
+    <t>嫉妒,恋爱中的女人</t>
+  </si>
+  <si>
+    <t>人间失格,太宰治作品选,斜阳,跑吧美乐斯</t>
+  </si>
+  <si>
+    <t>第六病室,装在套子里的人,跳来跳去的女人,鞋匠和魔鬼</t>
+  </si>
+  <si>
+    <t>美丽新世界</t>
+  </si>
+  <si>
+    <t>钢铁是怎样炼成的</t>
+  </si>
+  <si>
+    <t xml:space="preserve">七十二个字母,你一生的故事 </t>
+  </si>
+  <si>
+    <t>茶花女</t>
+  </si>
+  <si>
+    <t>好兆头,美国众神北欧众神,遗忘之海</t>
+  </si>
+  <si>
+    <t>初恋,春潮,父与子,猎人笔记,贵族之家</t>
+  </si>
+  <si>
+    <t>情书</t>
+  </si>
+  <si>
+    <t>山之音,川端康成十卷集,湖,美好的旅行</t>
+  </si>
+  <si>
+    <t>交际花盛衰记,高老头</t>
+  </si>
+  <si>
+    <t>阴谋与爱情</t>
+  </si>
+  <si>
+    <t>沙丘</t>
+  </si>
+  <si>
+    <t>绿野仙踪</t>
+  </si>
+  <si>
+    <t>上升的一切必将汇合,好人难寻</t>
+  </si>
+  <si>
+    <t>普宁,洛丽塔</t>
+  </si>
+  <si>
+    <t>搏击俱乐部,肠子</t>
+  </si>
+  <si>
+    <t>魔戒全集指环王123</t>
+  </si>
+  <si>
+    <t>德伯家的苔丝,还乡</t>
+  </si>
+  <si>
+    <t>红龙,沉默的羔羊,汉尼拔,汉尼拔崛起</t>
+  </si>
+  <si>
+    <t>少年Pi的奇幻漂流</t>
+  </si>
+  <si>
+    <t>唐璜</t>
+  </si>
+  <si>
+    <t>一个陌生女人的来信,变形的陶醉,命运攸关的时刻,恐惧</t>
+  </si>
+  <si>
+    <t>捕梦网,穹顶之下,绿里奇迹,肖申克的救赎</t>
+  </si>
+  <si>
+    <t>玩偶之家</t>
+  </si>
+  <si>
+    <t>假如生活欺骗了你,普希金作品选,普希金诗选,黑桃皇后</t>
+  </si>
+  <si>
+    <t>菊与刀</t>
+  </si>
+  <si>
+    <t>1Q84,国境以南太阳以西,挪威的森林,没有色彩的多崎作和他的巡礼之年,海边的卡夫卡</t>
+  </si>
+  <si>
+    <t>野性的呼唤,马丁·伊登</t>
+  </si>
+  <si>
+    <t>在路上</t>
+  </si>
+  <si>
+    <t>理想国</t>
+  </si>
+  <si>
+    <t>福尔摩斯探案全集</t>
+  </si>
+  <si>
+    <t>欧·亨利短篇小说选</t>
+  </si>
+  <si>
+    <t>少年维特之烦恼,浮士德</t>
+  </si>
+  <si>
+    <t>人生的枷锁,刀锋,月亮和六便士,面纱</t>
+  </si>
+  <si>
+    <t>英雄艾文荷</t>
+  </si>
+  <si>
+    <t>昆虫记</t>
+  </si>
+  <si>
+    <t>吉檀迦利,飞鸟集·新月集</t>
+  </si>
+  <si>
+    <t>假如给我三天光明</t>
+  </si>
+  <si>
+    <t>丧钟为谁而鸣,老人与海,太阳照常升起,永别了武器,乞力马扎罗的雪,那片陌生的天地</t>
+  </si>
+  <si>
+    <t>查令十字街84号</t>
+  </si>
+  <si>
+    <t>失乐园,樱花树下,紫阳花日记,红花</t>
+  </si>
+  <si>
+    <t>阿甘正传</t>
+  </si>
+  <si>
+    <t>厄舍</t>
+  </si>
+  <si>
+    <t>印度之行,最漫长的旅程,看得见风景的房间</t>
+  </si>
+  <si>
+    <t>双城记,大卫·科波菲尔</t>
+  </si>
+  <si>
+    <t>乱世佳人</t>
+  </si>
+  <si>
+    <t>草叶集</t>
+  </si>
+  <si>
+    <t>包法利夫人,萨朗波</t>
+  </si>
+  <si>
+    <t>古兰经</t>
+  </si>
+  <si>
+    <t>傲慢与偏见,理智与情感</t>
+  </si>
+  <si>
+    <t>不朽,不能承受的生命之轻,本性,缓慢</t>
+  </si>
+  <si>
+    <t>静静的顿河</t>
+  </si>
+  <si>
+    <t>蒙田随笔全集</t>
+  </si>
+  <si>
+    <t>源氏物语</t>
+  </si>
+  <si>
+    <t>穿条纹睡衣的男孩</t>
+  </si>
+  <si>
+    <t>失乐园,论出版自由</t>
+  </si>
+  <si>
+    <t>背德者</t>
+  </si>
+  <si>
+    <t>巴黎圣母院,悲惨世界</t>
+  </si>
+  <si>
+    <t>名人传,约翰·克利斯朵夫</t>
+  </si>
+  <si>
+    <t>二十首情诗和一首绝望的歌,聂鲁达爱情诗选</t>
+  </si>
+  <si>
+    <t>呼啸山庄</t>
+  </si>
+  <si>
+    <t>永恒的终结,银河帝国基地七部曲</t>
+  </si>
+  <si>
+    <t>罗生门,芥川龙之介精选集</t>
+  </si>
+  <si>
+    <t>伊利亚特,奥德赛</t>
+  </si>
+  <si>
+    <t>哈姆雷特,威尼斯商人,李尔王,理查三世,罗密欧与朱丽叶,莎士比亚全集二</t>
+  </si>
+  <si>
+    <t>温泉,漂亮朋友,羊脂球</t>
+  </si>
+  <si>
+    <t>了不起的盖茨比,夜色温柔,爵士时代的故事,美丽与毁灭</t>
+  </si>
+  <si>
+    <t>名利场</t>
+  </si>
+  <si>
+    <t>阿尔谢尼耶夫的一生</t>
+  </si>
+  <si>
+    <t>十日谈</t>
+  </si>
+  <si>
+    <t>天才</t>
+  </si>
+  <si>
+    <t>假如明天来临</t>
+  </si>
+  <si>
+    <t>春琴抄,秦淮之夜,细雪</t>
+  </si>
+  <si>
+    <t>惶然录</t>
+  </si>
+  <si>
+    <t>玻璃球游戏,荒原狼</t>
+  </si>
+  <si>
+    <t>小妇人</t>
+  </si>
+  <si>
+    <t>蝴蝶梦</t>
+  </si>
+  <si>
+    <t>银河系漫游五部曲</t>
+  </si>
+  <si>
+    <t>东方快车谋杀案,尼罗河上的惨案,无人生还</t>
+  </si>
+  <si>
+    <t>太空漫游四部曲</t>
+  </si>
+  <si>
+    <t>艺妓回忆录</t>
+  </si>
+  <si>
+    <t>卡拉马佐夫兄弟,白痴,罪与罚</t>
+  </si>
+  <si>
+    <t>好兵帅克</t>
+  </si>
+  <si>
+    <t>当我们谈论爱情时我们在谈论什么</t>
+  </si>
+  <si>
+    <t>红字</t>
+  </si>
+  <si>
+    <t>汤姆索亚历险记,百万英镑</t>
+  </si>
+  <si>
+    <t>追忆似水年华</t>
+  </si>
+  <si>
+    <t>教父</t>
+  </si>
+  <si>
+    <t>在人间,我的大学,母亲</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,17 +844,25 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -922,7 +900,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -956,6 +934,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -990,9 +969,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1165,14 +1145,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D132"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22" customWidth="1"/>
+    <col min="3" max="3" width="89.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1183,7 +1169,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1191,13 +1177,13 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D2">
         <v>18989</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1205,13 +1191,13 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D3">
         <v>425</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1219,13 +1205,13 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D4">
-        <v>2445</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>2441</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1233,13 +1219,13 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D5">
-        <v>899</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>1982</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1247,13 +1233,13 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D6">
-        <v>15151</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>18924</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1261,13 +1247,13 @@
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="D7">
         <v>30597</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1275,13 +1261,13 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="D8">
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1289,13 +1275,13 @@
         <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="D9">
         <v>1062</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1303,13 +1289,13 @@
         <v>11</v>
       </c>
       <c r="C10" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D10">
-        <v>9468</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>11666</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1317,13 +1303,13 @@
         <v>12</v>
       </c>
       <c r="C11" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="D11">
-        <v>17637</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>17620</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1331,13 +1317,13 @@
         <v>13</v>
       </c>
       <c r="C12" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D12">
-        <v>2863</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>2846</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1345,13 +1331,13 @@
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="D13">
         <v>44063</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1359,13 +1345,13 @@
         <v>15</v>
       </c>
       <c r="C14" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="D14">
         <v>634</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1373,13 +1359,13 @@
         <v>16</v>
       </c>
       <c r="C15" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="D15">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1387,13 +1373,13 @@
         <v>17</v>
       </c>
       <c r="C16" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="D16">
-        <v>1259</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1401,13 +1387,13 @@
         <v>18</v>
       </c>
       <c r="C17" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D17">
-        <v>3060</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>3059</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1415,13 +1401,13 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="D18">
         <v>15075</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1429,13 +1415,13 @@
         <v>20</v>
       </c>
       <c r="C19" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="D19">
         <v>15277</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1443,13 +1429,13 @@
         <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="D20">
-        <v>7993</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>7979</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1457,13 +1443,13 @@
         <v>22</v>
       </c>
       <c r="C21" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D21">
-        <v>1208</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>1945</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1471,13 +1457,13 @@
         <v>23</v>
       </c>
       <c r="C22" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="D22">
-        <v>1776</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1485,13 +1471,13 @@
         <v>24</v>
       </c>
       <c r="C23" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="D23">
         <v>3177</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1499,13 +1485,13 @@
         <v>25</v>
       </c>
       <c r="C24" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D24">
         <v>1625</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1513,13 +1499,13 @@
         <v>26</v>
       </c>
       <c r="C25" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="D25">
-        <v>5795</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>5746</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1527,13 +1513,13 @@
         <v>27</v>
       </c>
       <c r="C26" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="D26">
-        <v>1923</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1541,13 +1527,13 @@
         <v>28</v>
       </c>
       <c r="C27" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="D27">
-        <v>862</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>5929</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1555,13 +1541,13 @@
         <v>29</v>
       </c>
       <c r="C28" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="D28">
-        <v>5929</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>5643</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1569,13 +1555,13 @@
         <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="D29">
-        <v>5643</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>10526</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1583,13 +1569,13 @@
         <v>31</v>
       </c>
       <c r="C30" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="D30">
-        <v>10526</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>6402</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1597,13 +1583,13 @@
         <v>32</v>
       </c>
       <c r="C31" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="D31">
-        <v>6402</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1611,13 +1597,13 @@
         <v>33</v>
       </c>
       <c r="C32" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="D32">
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1625,13 +1611,13 @@
         <v>34</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="D33">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>4042</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1639,13 +1625,13 @@
         <v>35</v>
       </c>
       <c r="C34" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="D34">
-        <v>4043</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>21482</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1653,13 +1639,13 @@
         <v>36</v>
       </c>
       <c r="C35" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="D35">
-        <v>12662</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>3384</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1667,13 +1653,13 @@
         <v>37</v>
       </c>
       <c r="C36" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D36">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>9915</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1681,13 +1667,13 @@
         <v>38</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="D37">
-        <v>3384</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>1949</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1695,13 +1681,13 @@
         <v>39</v>
       </c>
       <c r="C38" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D38">
-        <v>9915</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1709,13 +1695,13 @@
         <v>40</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="D39">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1723,13 +1709,13 @@
         <v>41</v>
       </c>
       <c r="C40" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D40">
-        <v>806</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>2601</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1737,13 +1723,13 @@
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D41">
-        <v>1636</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>2221</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1751,13 +1737,13 @@
         <v>43</v>
       </c>
       <c r="C42" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D42">
-        <v>2601</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+        <v>2576</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1765,13 +1751,13 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D43">
-        <v>2221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>14194</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1779,13 +1765,13 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="D44">
-        <v>742</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>8495</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1793,13 +1779,13 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="D45">
-        <v>2576</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1807,13 +1793,13 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D46">
-        <v>14294</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>13980</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1821,13 +1807,13 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="D47">
-        <v>8497</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>10653</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1835,13 +1821,13 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D48">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1849,13 +1835,13 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="D49">
-        <v>14349</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>7950</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1863,13 +1849,13 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D50">
-        <v>10653</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>2599</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1877,13 +1863,13 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="D51">
-        <v>1050</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1891,13 +1877,13 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D52">
-        <v>7994</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1905,13 +1891,13 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="D53">
-        <v>2600</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>5683</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1919,13 +1905,13 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="D54">
-        <v>2743</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>10793</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1933,13 +1919,13 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D55">
-        <v>1931</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>7304</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1947,13 +1933,13 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="D56">
-        <v>5804</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>13818</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1961,13 +1947,13 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D57">
-        <v>10794</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1975,13 +1961,13 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="D58">
-        <v>7316</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>16493</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1989,13 +1975,13 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D59">
-        <v>13818</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>1652</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2003,13 +1989,13 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="D60">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>28739</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2017,13 +2003,13 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D61">
-        <v>16493</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>1352</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2031,13 +2017,13 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="D62">
-        <v>1657</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>7793</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2045,13 +2031,13 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D63">
-        <v>28759</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2059,13 +2045,13 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="D64">
-        <v>1352</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>14212</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2073,13 +2059,13 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="D65">
-        <v>7831</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>4569</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2087,13 +2073,13 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="D66">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2101,13 +2087,13 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="D67">
-        <v>14212</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>4370</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2115,13 +2101,13 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="D68">
-        <v>4569</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>15893</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2129,13 +2115,13 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="D69">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2143,13 +2129,13 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="D70">
-        <v>4370</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>14519</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2157,13 +2143,13 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="D71">
-        <v>15894</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>11989</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2171,13 +2157,13 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="D72">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>6653</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2185,13 +2171,13 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="D73">
-        <v>14520</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2199,13 +2185,13 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="D74">
-        <v>11990</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2213,13 +2199,13 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="D75">
-        <v>6658</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2227,13 +2213,13 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="D76">
-        <v>1236</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>14763</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2241,13 +2227,13 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="D77">
-        <v>1353</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2255,13 +2241,13 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="D78">
-        <v>1962</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>21404</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2269,13 +2255,13 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="D79">
-        <v>16773</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2283,13 +2269,13 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="D80">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>3704</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2297,13 +2283,13 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="D81">
-        <v>21405</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>14927</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2311,13 +2297,13 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="D82">
-        <v>1507</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>10695</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2325,13 +2311,13 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="D83">
-        <v>3704</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>4858</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2339,13 +2325,13 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="D84">
-        <v>14927</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>13343</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2353,13 +2339,13 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="D85">
-        <v>10709</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>4772</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2367,13 +2353,13 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="D86">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>6568</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2381,13 +2367,13 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="D87">
-        <v>4859</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>3756</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2395,13 +2381,13 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="D88">
-        <v>13343</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>2953</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2409,13 +2395,13 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="D89">
-        <v>4801</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>3664</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2423,13 +2409,13 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="D90">
-        <v>6568</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>6798</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2437,13 +2423,13 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="D91">
-        <v>3756</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>4442</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2451,13 +2437,13 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="D92">
-        <v>2957</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2465,13 +2451,13 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="D93">
-        <v>3664</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>11193</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2479,13 +2465,13 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="D94">
-        <v>6798</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2493,13 +2479,13 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="D95">
-        <v>4442</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>17752</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2507,13 +2493,13 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="D96">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2521,13 +2507,13 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="D97">
-        <v>11193</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>1435</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2535,13 +2521,13 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="D98">
-        <v>538</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>2101</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2549,13 +2535,13 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="D99">
-        <v>17769</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>27802</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2563,13 +2549,13 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="D100">
-        <v>1773</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>3128</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2577,13 +2563,13 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="D101">
-        <v>1435</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>17336</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2591,13 +2577,13 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="D102">
-        <v>2101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>12952</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2605,13 +2591,13 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="D103">
-        <v>27804</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
+        <v>7588</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2619,13 +2605,13 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="D104">
-        <v>3129</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+        <v>12154</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2633,13 +2619,13 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D105">
-        <v>17387</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
+        <v>3811</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2647,13 +2633,13 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="D106">
-        <v>12953</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2661,13 +2647,13 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="D107">
-        <v>7608</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2675,13 +2661,13 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="D108">
-        <v>12155</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
+        <v>4980</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2689,13 +2675,13 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D109">
-        <v>3811</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
+        <v>4876</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2703,13 +2689,13 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="D110">
-        <v>1114</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
+        <v>3973</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2717,13 +2703,13 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="D111">
-        <v>1109</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2731,13 +2717,13 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="D112">
-        <v>4177</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
+        <v>2549</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2745,13 +2731,13 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="D113">
-        <v>4989</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
+        <v>2814</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2759,13 +2745,13 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="D114">
-        <v>4876</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
+        <v>3937</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2773,13 +2759,13 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="D115">
-        <v>4001</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>11166</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2787,13 +2773,13 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D116">
-        <v>781</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
+        <v>9817</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2801,13 +2787,13 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="D117">
-        <v>2581</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
+        <v>6427</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2815,13 +2801,13 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="D118">
-        <v>2814</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2829,13 +2815,13 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="D119">
-        <v>3937</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
+        <v>11807</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2843,13 +2829,13 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="D120">
-        <v>11206</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2857,13 +2843,13 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D121">
-        <v>9818</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2871,13 +2857,13 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="D122">
-        <v>6814</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2885,13 +2871,13 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="D123">
-        <v>1301</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2899,13 +2885,13 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="D124">
-        <v>11808</v>
-      </c>
-    </row>
-    <row r="125" spans="1:4">
+        <v>7973</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2913,13 +2899,13 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="D125">
-        <v>2120</v>
-      </c>
-    </row>
-    <row r="126" spans="1:4">
+        <v>3908</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2927,93 +2913,9 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="D126">
-        <v>1177</v>
-      </c>
-    </row>
-    <row r="127" spans="1:4">
-      <c r="A127" s="1">
-        <v>125</v>
-      </c>
-      <c r="B127" t="s">
-        <v>128</v>
-      </c>
-      <c r="C127" t="s">
-        <v>259</v>
-      </c>
-      <c r="D127">
-        <v>1008</v>
-      </c>
-    </row>
-    <row r="128" spans="1:4">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128" t="s">
-        <v>129</v>
-      </c>
-      <c r="C128" t="s">
-        <v>260</v>
-      </c>
-      <c r="D128">
-        <v>5253</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129" t="s">
-        <v>130</v>
-      </c>
-      <c r="C129" t="s">
-        <v>261</v>
-      </c>
-      <c r="D129">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130" t="s">
-        <v>131</v>
-      </c>
-      <c r="C130" t="s">
-        <v>262</v>
-      </c>
-      <c r="D130">
-        <v>7973</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131" t="s">
-        <v>132</v>
-      </c>
-      <c r="C131" t="s">
-        <v>263</v>
-      </c>
-      <c r="D131">
-        <v>3908</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132" t="s">
-        <v>133</v>
-      </c>
-      <c r="C132" t="s">
-        <v>264</v>
-      </c>
-      <c r="D132">
         <v>10154</v>
       </c>
     </row>

--- a/data/files/info.xlsx
+++ b/data/files/info.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnkieF\Desktop\repo\data\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A66E625-3988-4976-B852-0C1279FAA514}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78020720-4824-4A61-AED3-33003355A102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="14040" yWindow="3765" windowWidth="17790" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -529,9 +529,6 @@
     <t>茶花女</t>
   </si>
   <si>
-    <t>好兆头,美国众神北欧众神,遗忘之海</t>
-  </si>
-  <si>
     <t>初恋,春潮,父与子,猎人笔记,贵族之家</t>
   </si>
   <si>
@@ -779,6 +776,9 @@
   </si>
   <si>
     <t>在人间,我的大学,母亲</t>
+  </si>
+  <si>
+    <t>好兆头,美国众神,北欧众神,遗忘之海</t>
   </si>
 </sst>
 </file>
@@ -1148,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1751,7 +1751,7 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>169</v>
+        <v>252</v>
       </c>
       <c r="D43">
         <v>14194</v>
@@ -1765,7 +1765,7 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D44">
         <v>8495</v>
@@ -1779,7 +1779,7 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D45">
         <v>173</v>
@@ -1793,7 +1793,7 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D46">
         <v>13980</v>
@@ -1807,7 +1807,7 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D47">
         <v>10653</v>
@@ -1821,7 +1821,7 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D48">
         <v>1050</v>
@@ -1835,7 +1835,7 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D49">
         <v>7950</v>
@@ -1849,7 +1849,7 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D50">
         <v>2599</v>
@@ -1863,7 +1863,7 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D51">
         <v>2738</v>
@@ -1877,7 +1877,7 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D52">
         <v>1915</v>
@@ -1891,7 +1891,7 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D53">
         <v>5683</v>
@@ -1905,7 +1905,7 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D54">
         <v>10793</v>
@@ -1919,7 +1919,7 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D55">
         <v>7304</v>
@@ -1933,7 +1933,7 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D56">
         <v>13818</v>
@@ -1947,7 +1947,7 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D57">
         <v>2223</v>
@@ -1961,7 +1961,7 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D58">
         <v>16493</v>
@@ -1975,7 +1975,7 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D59">
         <v>1652</v>
@@ -1989,7 +1989,7 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D60">
         <v>28739</v>
@@ -2003,7 +2003,7 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D61">
         <v>1352</v>
@@ -2017,7 +2017,7 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D62">
         <v>7793</v>
@@ -2031,7 +2031,7 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D63">
         <v>496</v>
@@ -2045,7 +2045,7 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D64">
         <v>14212</v>
@@ -2059,7 +2059,7 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D65">
         <v>4569</v>
@@ -2073,7 +2073,7 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D66">
         <v>830</v>
@@ -2087,7 +2087,7 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D67">
         <v>4370</v>
@@ -2101,7 +2101,7 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D68">
         <v>15893</v>
@@ -2115,7 +2115,7 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D69">
         <v>205</v>
@@ -2129,7 +2129,7 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D70">
         <v>14519</v>
@@ -2143,7 +2143,7 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D71">
         <v>11989</v>
@@ -2157,7 +2157,7 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D72">
         <v>6653</v>
@@ -2171,7 +2171,7 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D73">
         <v>1236</v>
@@ -2185,7 +2185,7 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D74">
         <v>1234</v>
@@ -2199,7 +2199,7 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D75">
         <v>1944</v>
@@ -2213,7 +2213,7 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D76">
         <v>14763</v>
@@ -2227,7 +2227,7 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D77">
         <v>356</v>
@@ -2241,7 +2241,7 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D78">
         <v>21404</v>
@@ -2255,7 +2255,7 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D79">
         <v>1506</v>
@@ -2269,7 +2269,7 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D80">
         <v>3704</v>
@@ -2283,7 +2283,7 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D81">
         <v>14927</v>
@@ -2297,7 +2297,7 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D82">
         <v>10695</v>
@@ -2311,7 +2311,7 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D83">
         <v>4858</v>
@@ -2325,7 +2325,7 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D84">
         <v>13343</v>
@@ -2339,7 +2339,7 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D85">
         <v>4772</v>
@@ -2353,7 +2353,7 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D86">
         <v>6568</v>
@@ -2367,7 +2367,7 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D87">
         <v>3756</v>
@@ -2381,7 +2381,7 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D88">
         <v>2953</v>
@@ -2395,7 +2395,7 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D89">
         <v>3664</v>
@@ -2409,7 +2409,7 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D90">
         <v>6798</v>
@@ -2423,7 +2423,7 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D91">
         <v>4442</v>
@@ -2437,7 +2437,7 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D92">
         <v>566</v>
@@ -2451,7 +2451,7 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D93">
         <v>11193</v>
@@ -2465,7 +2465,7 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D94">
         <v>538</v>
@@ -2479,7 +2479,7 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D95">
         <v>17752</v>
@@ -2493,7 +2493,7 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D96">
         <v>1749</v>
@@ -2507,7 +2507,7 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D97">
         <v>1435</v>
@@ -2521,7 +2521,7 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D98">
         <v>2101</v>
@@ -2535,7 +2535,7 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D99">
         <v>27802</v>
@@ -2549,7 +2549,7 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D100">
         <v>3128</v>
@@ -2563,7 +2563,7 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D101">
         <v>17336</v>
@@ -2577,7 +2577,7 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D102">
         <v>12952</v>
@@ -2591,7 +2591,7 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D103">
         <v>7588</v>
@@ -2605,7 +2605,7 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D104">
         <v>12154</v>
@@ -2619,7 +2619,7 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D105">
         <v>3811</v>
@@ -2633,7 +2633,7 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D106">
         <v>1109</v>
@@ -2647,7 +2647,7 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D107">
         <v>4177</v>
@@ -2661,7 +2661,7 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D108">
         <v>4980</v>
@@ -2675,7 +2675,7 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D109">
         <v>4876</v>
@@ -2689,7 +2689,7 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D110">
         <v>3973</v>
@@ -2703,7 +2703,7 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D111">
         <v>780</v>
@@ -2717,7 +2717,7 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D112">
         <v>2549</v>
@@ -2731,7 +2731,7 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D113">
         <v>2814</v>
@@ -2745,7 +2745,7 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D114">
         <v>3937</v>
@@ -2759,7 +2759,7 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D115">
         <v>11166</v>
@@ -2773,7 +2773,7 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D116">
         <v>9817</v>
@@ -2787,7 +2787,7 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D117">
         <v>6427</v>
@@ -2801,7 +2801,7 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D118">
         <v>1301</v>
@@ -2815,7 +2815,7 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D119">
         <v>11807</v>
@@ -2829,7 +2829,7 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D120">
         <v>2120</v>
@@ -2843,7 +2843,7 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D121">
         <v>1157</v>
@@ -2857,7 +2857,7 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D122">
         <v>1008</v>
@@ -2871,7 +2871,7 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D123">
         <v>2048</v>
@@ -2885,7 +2885,7 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D124">
         <v>7973</v>
@@ -2899,7 +2899,7 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D125">
         <v>3908</v>
@@ -2913,7 +2913,7 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D126">
         <v>10154</v>

--- a/data/files/info.xlsx
+++ b/data/files/info.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27425"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AnkieF\Desktop\repo\data\files\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78020720-4824-4A61-AED3-33003355A102}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14040" yWindow="3765" windowWidth="17790" windowHeight="15930" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -529,6 +523,9 @@
     <t>茶花女</t>
   </si>
   <si>
+    <t>好兆头,美国众神,北欧众神,遗忘之海</t>
+  </si>
+  <si>
     <t>初恋,春潮,父与子,猎人笔记,贵族之家</t>
   </si>
   <si>
@@ -637,7 +634,7 @@
     <t>阿甘正传</t>
   </si>
   <si>
-    <t>厄舍</t>
+    <t>厄舍府之倒塌,黑猫,瓶中手稿</t>
   </si>
   <si>
     <t>印度之行,最漫长的旅程,看得见风景的房间</t>
@@ -776,16 +773,13 @@
   </si>
   <si>
     <t>在人间,我的大学,母亲</t>
-  </si>
-  <si>
-    <t>好兆头,美国众神,北欧众神,遗忘之海</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -844,25 +838,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -900,7 +886,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -934,7 +920,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -969,10 +954,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1145,20 +1129,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="2" max="2" width="22" customWidth="1"/>
-    <col min="3" max="3" width="89.140625" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1169,7 +1147,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -1183,7 +1161,7 @@
         <v>18989</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -1197,7 +1175,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -1211,7 +1189,7 @@
         <v>2441</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -1225,7 +1203,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -1239,7 +1217,7 @@
         <v>18924</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -1253,7 +1231,7 @@
         <v>30597</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -1267,7 +1245,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -1281,7 +1259,7 @@
         <v>1062</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -1295,7 +1273,7 @@
         <v>11666</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -1309,7 +1287,7 @@
         <v>17620</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -1323,7 +1301,7 @@
         <v>2846</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1337,7 +1315,7 @@
         <v>44063</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1351,7 +1329,7 @@
         <v>634</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1365,7 +1343,7 @@
         <v>779</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1379,7 +1357,7 @@
         <v>1202</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1393,7 +1371,7 @@
         <v>3059</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1407,7 +1385,7 @@
         <v>15075</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1421,7 +1399,7 @@
         <v>15277</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1435,7 +1413,7 @@
         <v>7979</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1449,7 +1427,7 @@
         <v>1945</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1463,7 +1441,7 @@
         <v>2248</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1477,7 +1455,7 @@
         <v>3177</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1491,7 +1469,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1505,7 +1483,7 @@
         <v>5746</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -1519,7 +1497,7 @@
         <v>1901</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -1533,7 +1511,7 @@
         <v>5929</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -1547,7 +1525,7 @@
         <v>5643</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -1561,7 +1539,7 @@
         <v>10526</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -1575,7 +1553,7 @@
         <v>6402</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -1589,7 +1567,7 @@
         <v>1594</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -1603,7 +1581,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -1617,7 +1595,7 @@
         <v>4042</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -1631,7 +1609,7 @@
         <v>21482</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -1645,7 +1623,7 @@
         <v>3384</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -1659,7 +1637,7 @@
         <v>9915</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -1673,7 +1651,7 @@
         <v>1949</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -1687,7 +1665,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -1701,7 +1679,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -1715,7 +1693,7 @@
         <v>2601</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -1729,7 +1707,7 @@
         <v>2221</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -1743,7 +1721,7 @@
         <v>2576</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -1751,13 +1729,13 @@
         <v>44</v>
       </c>
       <c r="C43" t="s">
-        <v>252</v>
+        <v>169</v>
       </c>
       <c r="D43">
         <v>14194</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -1765,13 +1743,13 @@
         <v>45</v>
       </c>
       <c r="C44" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D44">
         <v>8495</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -1779,13 +1757,13 @@
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="D45">
         <v>173</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -1793,13 +1771,13 @@
         <v>47</v>
       </c>
       <c r="C46" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D46">
         <v>13980</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -1807,13 +1785,13 @@
         <v>48</v>
       </c>
       <c r="C47" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="D47">
         <v>10653</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -1821,13 +1799,13 @@
         <v>49</v>
       </c>
       <c r="C48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D48">
         <v>1050</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -1835,13 +1813,13 @@
         <v>50</v>
       </c>
       <c r="C49" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D49">
         <v>7950</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -1849,13 +1827,13 @@
         <v>51</v>
       </c>
       <c r="C50" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D50">
         <v>2599</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -1863,13 +1841,13 @@
         <v>52</v>
       </c>
       <c r="C51" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="D51">
         <v>2738</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -1877,13 +1855,13 @@
         <v>53</v>
       </c>
       <c r="C52" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D52">
         <v>1915</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -1891,13 +1869,13 @@
         <v>54</v>
       </c>
       <c r="C53" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D53">
         <v>5683</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -1905,13 +1883,13 @@
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D54">
         <v>10793</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -1919,13 +1897,13 @@
         <v>56</v>
       </c>
       <c r="C55" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D55">
         <v>7304</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -1933,13 +1911,13 @@
         <v>57</v>
       </c>
       <c r="C56" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D56">
         <v>13818</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -1947,13 +1925,13 @@
         <v>58</v>
       </c>
       <c r="C57" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D57">
         <v>2223</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -1961,13 +1939,13 @@
         <v>59</v>
       </c>
       <c r="C58" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D58">
         <v>16493</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -1975,13 +1953,13 @@
         <v>60</v>
       </c>
       <c r="C59" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D59">
         <v>1652</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -1989,13 +1967,13 @@
         <v>61</v>
       </c>
       <c r="C60" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D60">
         <v>28739</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2003,13 +1981,13 @@
         <v>62</v>
       </c>
       <c r="C61" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D61">
         <v>1352</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2017,13 +1995,13 @@
         <v>63</v>
       </c>
       <c r="C62" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D62">
         <v>7793</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2031,13 +2009,13 @@
         <v>64</v>
       </c>
       <c r="C63" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D63">
         <v>496</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2045,13 +2023,13 @@
         <v>65</v>
       </c>
       <c r="C64" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D64">
         <v>14212</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -2059,13 +2037,13 @@
         <v>66</v>
       </c>
       <c r="C65" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D65">
         <v>4569</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -2073,13 +2051,13 @@
         <v>67</v>
       </c>
       <c r="C66" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D66">
         <v>830</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -2087,13 +2065,13 @@
         <v>68</v>
       </c>
       <c r="C67" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="D67">
         <v>4370</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -2101,13 +2079,13 @@
         <v>69</v>
       </c>
       <c r="C68" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="D68">
         <v>15893</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -2115,13 +2093,13 @@
         <v>70</v>
       </c>
       <c r="C69" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D69">
         <v>205</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -2129,13 +2107,13 @@
         <v>71</v>
       </c>
       <c r="C70" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="D70">
         <v>14519</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -2143,13 +2121,13 @@
         <v>72</v>
       </c>
       <c r="C71" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="D71">
         <v>11989</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -2157,13 +2135,13 @@
         <v>73</v>
       </c>
       <c r="C72" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D72">
         <v>6653</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -2171,13 +2149,13 @@
         <v>74</v>
       </c>
       <c r="C73" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D73">
         <v>1236</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -2185,13 +2163,13 @@
         <v>75</v>
       </c>
       <c r="C74" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="D74">
         <v>1234</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -2199,13 +2177,13 @@
         <v>76</v>
       </c>
       <c r="C75" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="D75">
         <v>1944</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -2213,13 +2191,13 @@
         <v>77</v>
       </c>
       <c r="C76" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="D76">
         <v>14763</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -2227,13 +2205,13 @@
         <v>78</v>
       </c>
       <c r="C77" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D77">
         <v>356</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -2241,13 +2219,13 @@
         <v>79</v>
       </c>
       <c r="C78" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="D78">
         <v>21404</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -2255,13 +2233,13 @@
         <v>80</v>
       </c>
       <c r="C79" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="D79">
         <v>1506</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -2269,13 +2247,13 @@
         <v>81</v>
       </c>
       <c r="C80" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D80">
         <v>3704</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -2283,13 +2261,13 @@
         <v>82</v>
       </c>
       <c r="C81" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="D81">
         <v>14927</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -2297,13 +2275,13 @@
         <v>83</v>
       </c>
       <c r="C82" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D82">
         <v>10695</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -2311,13 +2289,13 @@
         <v>84</v>
       </c>
       <c r="C83" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D83">
         <v>4858</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -2325,13 +2303,13 @@
         <v>85</v>
       </c>
       <c r="C84" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D84">
         <v>13343</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -2339,13 +2317,13 @@
         <v>86</v>
       </c>
       <c r="C85" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="D85">
         <v>4772</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -2353,13 +2331,13 @@
         <v>87</v>
       </c>
       <c r="C86" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="D86">
         <v>6568</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -2367,13 +2345,13 @@
         <v>88</v>
       </c>
       <c r="C87" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="D87">
         <v>3756</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -2381,13 +2359,13 @@
         <v>89</v>
       </c>
       <c r="C88" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D88">
         <v>2953</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -2395,13 +2373,13 @@
         <v>90</v>
       </c>
       <c r="C89" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="D89">
         <v>3664</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -2409,13 +2387,13 @@
         <v>91</v>
       </c>
       <c r="C90" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="D90">
         <v>6798</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -2423,13 +2401,13 @@
         <v>92</v>
       </c>
       <c r="C91" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D91">
         <v>4442</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -2437,13 +2415,13 @@
         <v>93</v>
       </c>
       <c r="C92" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="D92">
         <v>566</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -2451,13 +2429,13 @@
         <v>94</v>
       </c>
       <c r="C93" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D93">
         <v>11193</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -2465,13 +2443,13 @@
         <v>95</v>
       </c>
       <c r="C94" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="D94">
         <v>538</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -2479,13 +2457,13 @@
         <v>96</v>
       </c>
       <c r="C95" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="D95">
         <v>17752</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -2493,13 +2471,13 @@
         <v>97</v>
       </c>
       <c r="C96" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D96">
         <v>1749</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -2507,13 +2485,13 @@
         <v>98</v>
       </c>
       <c r="C97" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D97">
         <v>1435</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -2521,13 +2499,13 @@
         <v>99</v>
       </c>
       <c r="C98" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="D98">
         <v>2101</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -2535,13 +2513,13 @@
         <v>100</v>
       </c>
       <c r="C99" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="D99">
         <v>27802</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -2549,13 +2527,13 @@
         <v>101</v>
       </c>
       <c r="C100" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="D100">
         <v>3128</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -2563,13 +2541,13 @@
         <v>102</v>
       </c>
       <c r="C101" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="D101">
         <v>17336</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -2577,13 +2555,13 @@
         <v>103</v>
       </c>
       <c r="C102" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D102">
         <v>12952</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -2591,13 +2569,13 @@
         <v>104</v>
       </c>
       <c r="C103" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="D103">
         <v>7588</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -2605,13 +2583,13 @@
         <v>105</v>
       </c>
       <c r="C104" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="D104">
         <v>12154</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -2619,13 +2597,13 @@
         <v>106</v>
       </c>
       <c r="C105" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D105">
         <v>3811</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -2633,13 +2611,13 @@
         <v>107</v>
       </c>
       <c r="C106" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="D106">
         <v>1109</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -2647,13 +2625,13 @@
         <v>108</v>
       </c>
       <c r="C107" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="D107">
         <v>4177</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -2661,13 +2639,13 @@
         <v>109</v>
       </c>
       <c r="C108" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="D108">
         <v>4980</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -2675,13 +2653,13 @@
         <v>110</v>
       </c>
       <c r="C109" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D109">
         <v>4876</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -2689,13 +2667,13 @@
         <v>111</v>
       </c>
       <c r="C110" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="D110">
         <v>3973</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -2703,13 +2681,13 @@
         <v>112</v>
       </c>
       <c r="C111" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="D111">
         <v>780</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -2717,13 +2695,13 @@
         <v>113</v>
       </c>
       <c r="C112" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D112">
         <v>2549</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -2731,13 +2709,13 @@
         <v>114</v>
       </c>
       <c r="C113" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="D113">
         <v>2814</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -2745,13 +2723,13 @@
         <v>115</v>
       </c>
       <c r="C114" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="D114">
         <v>3937</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -2759,13 +2737,13 @@
         <v>116</v>
       </c>
       <c r="C115" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="D115">
         <v>11166</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -2773,13 +2751,13 @@
         <v>117</v>
       </c>
       <c r="C116" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D116">
         <v>9817</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:4">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -2787,13 +2765,13 @@
         <v>118</v>
       </c>
       <c r="C117" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="D117">
         <v>6427</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -2801,13 +2779,13 @@
         <v>119</v>
       </c>
       <c r="C118" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="D118">
         <v>1301</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:4">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -2815,13 +2793,13 @@
         <v>120</v>
       </c>
       <c r="C119" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D119">
         <v>11807</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -2829,13 +2807,13 @@
         <v>121</v>
       </c>
       <c r="C120" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="D120">
         <v>2120</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -2843,13 +2821,13 @@
         <v>122</v>
       </c>
       <c r="C121" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D121">
         <v>1157</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -2857,13 +2835,13 @@
         <v>123</v>
       </c>
       <c r="C122" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="D122">
         <v>1008</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:4">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -2871,13 +2849,13 @@
         <v>124</v>
       </c>
       <c r="C123" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="D123">
         <v>2048</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -2885,13 +2863,13 @@
         <v>125</v>
       </c>
       <c r="C124" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D124">
         <v>7973</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:4">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -2899,13 +2877,13 @@
         <v>126</v>
       </c>
       <c r="C125" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="D125">
         <v>3908</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -2913,7 +2891,7 @@
         <v>127</v>
       </c>
       <c r="C126" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D126">
         <v>10154</v>
